--- a/exports/xlsx/data_pendaftar_pmdp-ktmse.xlsx
+++ b/exports/xlsx/data_pendaftar_pmdp-ktmse.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="77">
   <si>
     <t>No.</t>
   </si>
@@ -134,28 +134,28 @@
     <t>Foto Rumah</t>
   </si>
   <si>
-    <t>Aditiya Ramadhan Saputra</t>
-  </si>
-  <si>
-    <t>Jalan Tanah Mas Azhar Blok C4 No4 Talang Kelapa, Kabputen Banyuasin, Suamatera Selatan</t>
-  </si>
-  <si>
-    <t>001</t>
-  </si>
-  <si>
-    <t>081271718692</t>
+    <t>M. Rizky Azizi</t>
+  </si>
+  <si>
+    <t>Poligon Kenten</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>0895620677790</t>
   </si>
   <si>
     <t>Pria</t>
   </si>
   <si>
-    <t>Sukajadi</t>
-  </si>
-  <si>
-    <t>2001-11-20</t>
-  </si>
-  <si>
-    <t>pas_foto_001.jpg</t>
+    <t>Palembang</t>
+  </si>
+  <si>
+    <t>2001-06-12</t>
+  </si>
+  <si>
+    <t>pas_foto_003.jpg</t>
   </si>
   <si>
     <t>PMDP</t>
@@ -167,7 +167,7 @@
     <t>IPA</t>
   </si>
   <si>
-    <t>SMAN 1 Talang Kelapa</t>
+    <t>SMAN 18 Palembang</t>
   </si>
   <si>
     <t>Negeri</t>
@@ -176,159 +176,69 @@
     <t>A</t>
   </si>
   <si>
-    <t>rekap_nilai_rapot_001.xlsx</t>
-  </si>
-  <si>
-    <t>bukti_pembayaran_001.jpg</t>
+    <t>rekap_nilai_rapot_003.xlsx</t>
+  </si>
+  <si>
+    <t>bukti_pembayaran_003.jpg</t>
+  </si>
+  <si>
+    <t>Prodi DIII Teknologi Laboratorium Medis (TLM)</t>
+  </si>
+  <si>
+    <t>prestasi_1_003.pdf</t>
+  </si>
+  <si>
+    <t>Data KTMSE 1</t>
+  </si>
+  <si>
+    <t>Jln Anggur Perumahan Semesta Blok A11, Palembang, Sumatera Selatan</t>
+  </si>
+  <si>
+    <t>007</t>
+  </si>
+  <si>
+    <t>0111111111111</t>
+  </si>
+  <si>
+    <t>Wanita</t>
+  </si>
+  <si>
+    <t>Lubuk Linggau</t>
+  </si>
+  <si>
+    <t>2001-11-11</t>
+  </si>
+  <si>
+    <t>pas_foto_007.jpg</t>
+  </si>
+  <si>
+    <t>KTMSE</t>
+  </si>
+  <si>
+    <t>Sekolah Menengah Kejuruan (SMK)</t>
+  </si>
+  <si>
+    <t>SMK Farmasi</t>
+  </si>
+  <si>
+    <t>SMAN 1 Palembang</t>
+  </si>
+  <si>
+    <t>Sumatera Selatan</t>
+  </si>
+  <si>
+    <t>Kota Palembang</t>
+  </si>
+  <si>
+    <t>rekap_nilai_rapot_007.xlsx</t>
+  </si>
+  <si>
+    <t>bukti_pembayaran_007.jpg</t>
   </si>
   <si>
     <t>Prodi DIII Farmasi</t>
   </si>
   <si>
-    <t>prestasi_1_001.pdf</t>
-  </si>
-  <si>
-    <t>prestasi_2_001.pdf</t>
-  </si>
-  <si>
-    <t>prestasi_3_001.pdf</t>
-  </si>
-  <si>
-    <t>Muhammad Naufal Kateni</t>
-  </si>
-  <si>
-    <t>Jl. M. P. Mangkunegara Komp. Tirta Kencana Blok C5, Palembang, Sumatera Selatan</t>
-  </si>
-  <si>
-    <t>002</t>
-  </si>
-  <si>
-    <t>0816382001</t>
-  </si>
-  <si>
-    <t>Palembang</t>
-  </si>
-  <si>
-    <t>2001-11-25</t>
-  </si>
-  <si>
-    <t>pas_foto_002.jpg</t>
-  </si>
-  <si>
-    <t>SMAS Kusuma Bangsa Palembang</t>
-  </si>
-  <si>
-    <t>Swasta</t>
-  </si>
-  <si>
-    <t>rekap_nilai_rapot_002.xlsx</t>
-  </si>
-  <si>
-    <t>bukti_pembayaran_002.jpg</t>
-  </si>
-  <si>
-    <t>Prodi DIII Teknologi Laboratorium Medis (TLM)</t>
-  </si>
-  <si>
-    <t>M. Rizky Azizi</t>
-  </si>
-  <si>
-    <t>Poligon Kenten</t>
-  </si>
-  <si>
-    <t>003</t>
-  </si>
-  <si>
-    <t>0895620677790</t>
-  </si>
-  <si>
-    <t>2001-06-12</t>
-  </si>
-  <si>
-    <t>pas_foto_003.jpg</t>
-  </si>
-  <si>
-    <t>SMAN 18 Palembang</t>
-  </si>
-  <si>
-    <t>rekap_nilai_rapot_003.xlsx</t>
-  </si>
-  <si>
-    <t>bukti_pembayaran_003.jpg</t>
-  </si>
-  <si>
-    <t>prestasi_1_003.pdf</t>
-  </si>
-  <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
-    <t>004</t>
-  </si>
-  <si>
-    <t>0816382000</t>
-  </si>
-  <si>
-    <t>pas_foto_004.jpg</t>
-  </si>
-  <si>
-    <t>rekap_nilai_rapot_004.xlsx</t>
-  </si>
-  <si>
-    <t>bukti_pembayaran_004.jpg</t>
-  </si>
-  <si>
-    <t>prestasi_1_004.pdf</t>
-  </si>
-  <si>
-    <t>Data KTMSE 1</t>
-  </si>
-  <si>
-    <t>Jln Anggur Perumahan Semesta Blok A11, Palembang, Sumatera Selatan</t>
-  </si>
-  <si>
-    <t>007</t>
-  </si>
-  <si>
-    <t>0111111111111</t>
-  </si>
-  <si>
-    <t>Wanita</t>
-  </si>
-  <si>
-    <t>Lubuk Linggau</t>
-  </si>
-  <si>
-    <t>2001-11-11</t>
-  </si>
-  <si>
-    <t>pas_foto_007.jpg</t>
-  </si>
-  <si>
-    <t>KTMSE</t>
-  </si>
-  <si>
-    <t>Sekolah Menengah Kejuruan (SMK)</t>
-  </si>
-  <si>
-    <t>SMK Farmasi</t>
-  </si>
-  <si>
-    <t>SMAN 1 Palembang</t>
-  </si>
-  <si>
-    <t>Sumatera Selatan</t>
-  </si>
-  <si>
-    <t>Kota Palembang</t>
-  </si>
-  <si>
-    <t>rekap_nilai_rapot_007.xlsx</t>
-  </si>
-  <si>
-    <t>bukti_pembayaran_007.jpg</t>
-  </si>
-  <si>
     <t>surat_keterangan_miskin_007.pdf</t>
   </si>
   <si>
@@ -336,60 +246,6 @@
   </si>
   <si>
     <t>foto_rumah_007.pdf</t>
-  </si>
-  <si>
-    <t>Data KTMSE 2</t>
-  </si>
-  <si>
-    <t>Jln Apel Gg Kosong Rumah Nomor 12, Banyuasin, Sumatera Selatan</t>
-  </si>
-  <si>
-    <t>008</t>
-  </si>
-  <si>
-    <t>022222222222</t>
-  </si>
-  <si>
-    <t>Pagar Alam</t>
-  </si>
-  <si>
-    <t>2001-07-03</t>
-  </si>
-  <si>
-    <t>pas_foto_008.jpg</t>
-  </si>
-  <si>
-    <t>Madrasah Aliyah Kejuruan (MAK)</t>
-  </si>
-  <si>
-    <t>SMK Keperawatan Gigi</t>
-  </si>
-  <si>
-    <t>SMAN 3 Palembang</t>
-  </si>
-  <si>
-    <t>rekap_nilai_rapot_008.xlsx</t>
-  </si>
-  <si>
-    <t>bukti_pembayaran_008.jpg</t>
-  </si>
-  <si>
-    <t>Prodi DIII Keperawatan Palembang</t>
-  </si>
-  <si>
-    <t>prestasi_1_008.pdf</t>
-  </si>
-  <si>
-    <t>prestasi_2_008.pdf</t>
-  </si>
-  <si>
-    <t>surat_keterangan_miskin_008.pdf</t>
-  </si>
-  <si>
-    <t>surat_keterangan_penghasilan_keluarga_008.pdf</t>
-  </si>
-  <si>
-    <t>foto_rumah_008.pdf</t>
   </si>
 </sst>
 </file>
@@ -728,7 +584,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AM7"/>
+  <dimension ref="A1:AM3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -866,7 +722,7 @@
         <v>40</v>
       </c>
       <c r="D2">
-        <v>30961</v>
+        <v>30111</v>
       </c>
       <c r="E2" t="s">
         <v>41</v>
@@ -878,10 +734,10 @@
         <v>43</v>
       </c>
       <c r="H2">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="I2">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="J2" t="s">
         <v>44</v>
@@ -911,7 +767,7 @@
         <v>16</v>
       </c>
       <c r="S2">
-        <v>1607</v>
+        <v>1671</v>
       </c>
       <c r="T2" t="s">
         <v>52</v>
@@ -923,7 +779,7 @@
         <v>53</v>
       </c>
       <c r="W2">
-        <v>100</v>
+        <v>95.8</v>
       </c>
       <c r="X2">
         <v>1</v>
@@ -950,12 +806,8 @@
       <c r="AF2" t="s">
         <v>56</v>
       </c>
-      <c r="AG2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>58</v>
-      </c>
+      <c r="AG2"/>
+      <c r="AH2"/>
       <c r="AI2"/>
       <c r="AJ2"/>
       <c r="AK2"/>
@@ -967,58 +819,58 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3">
+        <v>11111</v>
+      </c>
+      <c r="E3" t="s">
         <v>59</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" t="s">
         <v>60</v>
       </c>
-      <c r="D3">
-        <v>30163</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>61</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3">
+        <v>165</v>
+      </c>
+      <c r="I3">
+        <v>40</v>
+      </c>
+      <c r="J3" t="s">
         <v>62</v>
       </c>
-      <c r="G3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3">
-        <v>177</v>
-      </c>
-      <c r="I3">
+      <c r="K3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L3" t="s">
+        <v>64</v>
+      </c>
+      <c r="M3" t="s">
+        <v>65</v>
+      </c>
+      <c r="N3" t="s">
+        <v>66</v>
+      </c>
+      <c r="O3" t="s">
+        <v>67</v>
+      </c>
+      <c r="P3" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>51</v>
+      </c>
+      <c r="R3" t="s">
+        <v>69</v>
+      </c>
+      <c r="S3" t="s">
         <v>70</v>
-      </c>
-      <c r="J3" t="s">
-        <v>63</v>
-      </c>
-      <c r="K3" t="s">
-        <v>64</v>
-      </c>
-      <c r="L3" t="s">
-        <v>65</v>
-      </c>
-      <c r="M3" t="s">
-        <v>47</v>
-      </c>
-      <c r="N3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O3" t="s">
-        <v>49</v>
-      </c>
-      <c r="P3" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>67</v>
-      </c>
-      <c r="R3">
-        <v>16</v>
-      </c>
-      <c r="S3">
-        <v>1671</v>
       </c>
       <c r="T3" t="s">
         <v>52</v>
@@ -1027,10 +879,10 @@
         <v>2019</v>
       </c>
       <c r="V3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="W3">
-        <v>90.5</v>
+        <v>96.5</v>
       </c>
       <c r="X3">
         <v>1</v>
@@ -1048,445 +900,25 @@
         <v>1</v>
       </c>
       <c r="AC3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="AD3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>70</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="AE3"/>
       <c r="AF3"/>
       <c r="AG3"/>
       <c r="AH3"/>
       <c r="AI3"/>
       <c r="AJ3"/>
-      <c r="AK3"/>
-      <c r="AL3"/>
-      <c r="AM3"/>
-    </row>
-    <row r="4" spans="1:39">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4">
-        <v>30111</v>
-      </c>
-      <c r="E4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="AK3" t="s">
         <v>74</v>
       </c>
-      <c r="G4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4">
-        <v>180</v>
-      </c>
-      <c r="I4">
-        <v>70</v>
-      </c>
-      <c r="J4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="AL3" t="s">
         <v>75</v>
       </c>
-      <c r="L4" t="s">
+      <c r="AM3" t="s">
         <v>76</v>
-      </c>
-      <c r="M4" t="s">
-        <v>47</v>
-      </c>
-      <c r="N4" t="s">
-        <v>48</v>
-      </c>
-      <c r="O4" t="s">
-        <v>49</v>
-      </c>
-      <c r="P4" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>51</v>
-      </c>
-      <c r="R4">
-        <v>16</v>
-      </c>
-      <c r="S4">
-        <v>1671</v>
-      </c>
-      <c r="T4" t="s">
-        <v>52</v>
-      </c>
-      <c r="U4">
-        <v>2019</v>
-      </c>
-      <c r="V4" t="s">
-        <v>78</v>
-      </c>
-      <c r="W4">
-        <v>95.8</v>
-      </c>
-      <c r="X4">
-        <v>1</v>
-      </c>
-      <c r="Y4">
-        <v>1</v>
-      </c>
-      <c r="Z4">
-        <v>1</v>
-      </c>
-      <c r="AA4">
-        <v>1</v>
-      </c>
-      <c r="AB4">
-        <v>1</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE4"/>
-      <c r="AF4" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG4"/>
-      <c r="AH4"/>
-      <c r="AI4"/>
-      <c r="AJ4"/>
-      <c r="AK4"/>
-      <c r="AL4"/>
-      <c r="AM4"/>
-    </row>
-    <row r="5" spans="1:39">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5">
-        <v>30163</v>
-      </c>
-      <c r="E5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5">
-        <v>200</v>
-      </c>
-      <c r="I5">
-        <v>70</v>
-      </c>
-      <c r="J5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K5" t="s">
-        <v>64</v>
-      </c>
-      <c r="L5" t="s">
-        <v>84</v>
-      </c>
-      <c r="M5" t="s">
-        <v>47</v>
-      </c>
-      <c r="N5" t="s">
-        <v>48</v>
-      </c>
-      <c r="O5" t="s">
-        <v>49</v>
-      </c>
-      <c r="P5" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>67</v>
-      </c>
-      <c r="R5">
-        <v>16</v>
-      </c>
-      <c r="S5">
-        <v>1671</v>
-      </c>
-      <c r="T5" t="s">
-        <v>52</v>
-      </c>
-      <c r="U5">
-        <v>2019</v>
-      </c>
-      <c r="V5" t="s">
-        <v>85</v>
-      </c>
-      <c r="W5">
-        <v>90</v>
-      </c>
-      <c r="X5">
-        <v>1</v>
-      </c>
-      <c r="Y5">
-        <v>1</v>
-      </c>
-      <c r="Z5">
-        <v>1</v>
-      </c>
-      <c r="AA5">
-        <v>1</v>
-      </c>
-      <c r="AB5">
-        <v>1</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE5"/>
-      <c r="AF5" t="s">
-        <v>87</v>
-      </c>
-      <c r="AG5"/>
-      <c r="AH5"/>
-      <c r="AI5"/>
-      <c r="AJ5"/>
-      <c r="AK5"/>
-      <c r="AL5"/>
-      <c r="AM5"/>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D6">
-        <v>11111</v>
-      </c>
-      <c r="E6" t="s">
-        <v>90</v>
-      </c>
-      <c r="F6" t="s">
-        <v>91</v>
-      </c>
-      <c r="G6" t="s">
-        <v>92</v>
-      </c>
-      <c r="H6">
-        <v>165</v>
-      </c>
-      <c r="I6">
-        <v>40</v>
-      </c>
-      <c r="J6" t="s">
-        <v>93</v>
-      </c>
-      <c r="K6" t="s">
-        <v>94</v>
-      </c>
-      <c r="L6" t="s">
-        <v>95</v>
-      </c>
-      <c r="M6" t="s">
-        <v>96</v>
-      </c>
-      <c r="N6" t="s">
-        <v>97</v>
-      </c>
-      <c r="O6" t="s">
-        <v>98</v>
-      </c>
-      <c r="P6" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>51</v>
-      </c>
-      <c r="R6" t="s">
-        <v>100</v>
-      </c>
-      <c r="S6" t="s">
-        <v>101</v>
-      </c>
-      <c r="T6" t="s">
-        <v>52</v>
-      </c>
-      <c r="U6">
-        <v>2019</v>
-      </c>
-      <c r="V6" t="s">
-        <v>102</v>
-      </c>
-      <c r="W6">
-        <v>96.5</v>
-      </c>
-      <c r="X6">
-        <v>1</v>
-      </c>
-      <c r="Y6">
-        <v>1</v>
-      </c>
-      <c r="Z6">
-        <v>1</v>
-      </c>
-      <c r="AA6">
-        <v>1</v>
-      </c>
-      <c r="AB6">
-        <v>1</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE6"/>
-      <c r="AF6"/>
-      <c r="AG6"/>
-      <c r="AH6"/>
-      <c r="AI6"/>
-      <c r="AJ6"/>
-      <c r="AK6" t="s">
-        <v>104</v>
-      </c>
-      <c r="AL6" t="s">
-        <v>105</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>107</v>
-      </c>
-      <c r="C7" t="s">
-        <v>108</v>
-      </c>
-      <c r="D7">
-        <v>11112</v>
-      </c>
-      <c r="E7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G7" t="s">
-        <v>92</v>
-      </c>
-      <c r="H7">
-        <v>160</v>
-      </c>
-      <c r="I7">
-        <v>40</v>
-      </c>
-      <c r="J7" t="s">
-        <v>111</v>
-      </c>
-      <c r="K7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L7" t="s">
-        <v>113</v>
-      </c>
-      <c r="M7" t="s">
-        <v>96</v>
-      </c>
-      <c r="N7" t="s">
-        <v>114</v>
-      </c>
-      <c r="O7" t="s">
-        <v>115</v>
-      </c>
-      <c r="P7" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>51</v>
-      </c>
-      <c r="R7" t="s">
-        <v>100</v>
-      </c>
-      <c r="S7" t="s">
-        <v>101</v>
-      </c>
-      <c r="T7" t="s">
-        <v>52</v>
-      </c>
-      <c r="U7">
-        <v>2019</v>
-      </c>
-      <c r="V7" t="s">
-        <v>117</v>
-      </c>
-      <c r="W7">
-        <v>94.5</v>
-      </c>
-      <c r="X7">
-        <v>1</v>
-      </c>
-      <c r="Y7">
-        <v>1</v>
-      </c>
-      <c r="Z7">
-        <v>1</v>
-      </c>
-      <c r="AA7">
-        <v>1</v>
-      </c>
-      <c r="AB7">
-        <v>1</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>118</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>119</v>
-      </c>
-      <c r="AE7"/>
-      <c r="AF7" t="s">
-        <v>120</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AH7"/>
-      <c r="AI7"/>
-      <c r="AJ7"/>
-      <c r="AK7" t="s">
-        <v>122</v>
-      </c>
-      <c r="AL7" t="s">
-        <v>123</v>
-      </c>
-      <c r="AM7" t="s">
-        <v>124</v>
       </c>
     </row>
   </sheetData>
